--- a/Nomina Anual.xlsx
+++ b/Nomina Anual.xlsx
@@ -17,13 +17,25 @@
     <externalReference r:id="rId6"/>
     <externalReference r:id="rId7"/>
     <externalReference r:id="rId8"/>
+    <externalReference r:id="rId9"/>
+    <externalReference r:id="rId10"/>
+    <externalReference r:id="rId11"/>
+    <externalReference r:id="rId12"/>
+    <externalReference r:id="rId13"/>
+    <externalReference r:id="rId14"/>
+    <externalReference r:id="rId15"/>
+    <externalReference r:id="rId16"/>
+    <externalReference r:id="rId17"/>
+    <externalReference r:id="rId18"/>
+    <externalReference r:id="rId19"/>
+    <externalReference r:id="rId20"/>
   </externalReferences>
   <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="50">
   <si>
     <t>Hacienda Sicarigua C.A. Resumen Anual RRHH</t>
   </si>
@@ -167,6 +179,12 @@
   </si>
   <si>
     <t>Viajes</t>
+  </si>
+  <si>
+    <t>Tractorista</t>
+  </si>
+  <si>
+    <t>Taller</t>
   </si>
 </sst>
 </file>
@@ -289,7 +307,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -331,6 +349,10 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="3" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="4" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -375,17 +397,27 @@
       <sheetName val="UTILIDADES 2018"/>
     </sheetNames>
     <sheetDataSet>
-      <sheetData sheetId="0" refreshError="1"/>
-      <sheetData sheetId="1" refreshError="1"/>
-      <sheetData sheetId="2" refreshError="1"/>
-      <sheetData sheetId="3" refreshError="1"/>
-      <sheetData sheetId="4" refreshError="1"/>
+      <sheetData sheetId="0"/>
+      <sheetData sheetId="1"/>
+      <sheetData sheetId="2"/>
+      <sheetData sheetId="3"/>
+      <sheetData sheetId="4"/>
       <sheetData sheetId="5">
         <row r="9">
           <cell r="M9">
             <v>0</v>
           </cell>
         </row>
+        <row r="10">
+          <cell r="M10">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="11">
+          <cell r="M11">
+            <v>0</v>
+          </cell>
+        </row>
         <row r="12">
           <cell r="M12">
             <v>0</v>
@@ -445,21 +477,21 @@
           </cell>
         </row>
       </sheetData>
-      <sheetData sheetId="6" refreshError="1"/>
-      <sheetData sheetId="7" refreshError="1"/>
-      <sheetData sheetId="8" refreshError="1"/>
-      <sheetData sheetId="9" refreshError="1"/>
-      <sheetData sheetId="10" refreshError="1"/>
-      <sheetData sheetId="11" refreshError="1"/>
-      <sheetData sheetId="12" refreshError="1"/>
-      <sheetData sheetId="13" refreshError="1"/>
-      <sheetData sheetId="14" refreshError="1"/>
+      <sheetData sheetId="6"/>
+      <sheetData sheetId="7"/>
+      <sheetData sheetId="8"/>
+      <sheetData sheetId="9"/>
+      <sheetData sheetId="10"/>
+      <sheetData sheetId="11"/>
+      <sheetData sheetId="12"/>
+      <sheetData sheetId="13"/>
+      <sheetData sheetId="14"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
 </file>
 
-<file path=xl/externalLinks/externalLink2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/externalLinks/externalLink10.xml><?xml version="1.0" encoding="utf-8"?>
 <externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
@@ -471,11 +503,11 @@
       <sheetName val="Estadistica Mes"/>
     </sheetNames>
     <sheetDataSet>
-      <sheetData sheetId="0" refreshError="1"/>
-      <sheetData sheetId="1" refreshError="1"/>
-      <sheetData sheetId="2" refreshError="1"/>
-      <sheetData sheetId="3" refreshError="1"/>
-      <sheetData sheetId="4" refreshError="1"/>
+      <sheetData sheetId="0"/>
+      <sheetData sheetId="1"/>
+      <sheetData sheetId="2"/>
+      <sheetData sheetId="3"/>
+      <sheetData sheetId="4"/>
       <sheetData sheetId="5">
         <row r="6">
           <cell r="M6">
@@ -522,9 +554,6 @@
             <v>0</v>
           </cell>
           <cell r="D58">
-            <v>0</v>
-          </cell>
-          <cell r="E58">
             <v>0</v>
           </cell>
           <cell r="F58">
@@ -546,35 +575,33 @@
 </externalLink>
 </file>
 
-<file path=xl/externalLinks/externalLink3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/externalLinks/externalLink11.xml><?xml version="1.0" encoding="utf-8"?>
 <externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
-      <sheetName val="Nom.cdc.sem 1"/>
-      <sheetName val="Nom.cdc.sem 2"/>
-      <sheetName val="Nom.cdc.sem 3"/>
-      <sheetName val="Nom.cdc.sem 4"/>
-      <sheetName val="Nom.cdc.sem 5"/>
-      <sheetName val="Estadistica Mes"/>
+      <sheetName val="Nom. CdeC. Sem 1"/>
+      <sheetName val="Nom. CdeC. Sem 2"/>
+      <sheetName val="Nom. CdeC. Sem 3"/>
+      <sheetName val="Nom. CdeC. Sem 4"/>
+      <sheetName val="Nom. CdeC. Sem 5"/>
+      <sheetName val="ESTADISTICA MES"/>
       <sheetName val="Cálculo del Cesta ticket"/>
-      <sheetName val="sobre.cdc.Sem 1"/>
+      <sheetName val="A.M.Prest.Soc."/>
+      <sheetName val="Sobre CdC Sem. 1"/>
       <sheetName val="Sobre CdC Sem. 2"/>
       <sheetName val="Sobre CdC Sem. 3"/>
       <sheetName val="Sobre CdC. Sem 4"/>
       <sheetName val="Sobre CdC. Sem 5"/>
+      <sheetName val="listado para diana"/>
+      <sheetName val="utilidades 2018"/>
     </sheetNames>
     <sheetDataSet>
-      <sheetData sheetId="0" refreshError="1"/>
-      <sheetData sheetId="1" refreshError="1"/>
-      <sheetData sheetId="2" refreshError="1"/>
-      <sheetData sheetId="3" refreshError="1"/>
-      <sheetData sheetId="4" refreshError="1"/>
+      <sheetData sheetId="0"/>
+      <sheetData sheetId="1"/>
+      <sheetData sheetId="2"/>
+      <sheetData sheetId="3"/>
+      <sheetData sheetId="4"/>
       <sheetData sheetId="5">
-        <row r="7">
-          <cell r="M7">
-            <v>0</v>
-          </cell>
-        </row>
         <row r="8">
           <cell r="M8">
             <v>0</v>
@@ -595,24 +622,65 @@
             <v>0</v>
           </cell>
         </row>
-        <row r="15">
-          <cell r="M15">
+        <row r="12">
+          <cell r="M12">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="17">
+          <cell r="M17">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="18">
+          <cell r="M18">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="19">
+          <cell r="M19">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="40">
+          <cell r="C40">
+            <v>0</v>
+          </cell>
+          <cell r="D40">
+            <v>0</v>
+          </cell>
+          <cell r="E40">
+            <v>0</v>
+          </cell>
+          <cell r="F40">
+            <v>0</v>
+          </cell>
+          <cell r="G40">
+            <v>0</v>
+          </cell>
+          <cell r="H40">
+            <v>0</v>
+          </cell>
+          <cell r="I40">
             <v>0</v>
           </cell>
         </row>
       </sheetData>
-      <sheetData sheetId="6" refreshError="1"/>
-      <sheetData sheetId="7" refreshError="1"/>
-      <sheetData sheetId="8" refreshError="1"/>
-      <sheetData sheetId="9" refreshError="1"/>
-      <sheetData sheetId="10" refreshError="1"/>
-      <sheetData sheetId="11" refreshError="1"/>
+      <sheetData sheetId="6"/>
+      <sheetData sheetId="7"/>
+      <sheetData sheetId="8"/>
+      <sheetData sheetId="9"/>
+      <sheetData sheetId="10"/>
+      <sheetData sheetId="11"/>
+      <sheetData sheetId="12"/>
+      <sheetData sheetId="13"/>
+      <sheetData sheetId="14"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
 </file>
 
-<file path=xl/externalLinks/externalLink4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/externalLinks/externalLink12.xml><?xml version="1.0" encoding="utf-8"?>
 <externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
@@ -675,25 +743,82 @@
 </externalLink>
 </file>
 
-<file path=xl/externalLinks/externalLink5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/externalLinks/externalLink13.xml><?xml version="1.0" encoding="utf-8"?>
 <externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
-      <sheetName val="Nom. CdeC. Sem 1"/>
-      <sheetName val="Nom. CdeC. Sem 2"/>
-      <sheetName val="Nom. CdeC. Sem 3"/>
-      <sheetName val="Nom. CdeC. Sem 4"/>
-      <sheetName val="Nom. CdeC. Sem 5"/>
-      <sheetName val="ESTADISTICA MES"/>
+      <sheetName val="Nom.cdc.sem 1"/>
+      <sheetName val="Nom.cdc.sem 2"/>
+      <sheetName val="Nom.cdc.sem 3"/>
+      <sheetName val="Nom.cdc.sem 4"/>
+      <sheetName val="Nom.cdc.sem 5"/>
+      <sheetName val="Estadistica Mes"/>
       <sheetName val="Cálculo del Cesta ticket"/>
-      <sheetName val="A.M.Prest.Soc."/>
-      <sheetName val="Sobre CdC Sem. 1"/>
+      <sheetName val="sobre.cdc.Sem 1"/>
       <sheetName val="Sobre CdC Sem. 2"/>
       <sheetName val="Sobre CdC Sem. 3"/>
       <sheetName val="Sobre CdC. Sem 4"/>
       <sheetName val="Sobre CdC. Sem 5"/>
-      <sheetName val="listado para diana"/>
-      <sheetName val="utilidades 2018"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0"/>
+      <sheetData sheetId="1"/>
+      <sheetData sheetId="2"/>
+      <sheetData sheetId="3"/>
+      <sheetData sheetId="4"/>
+      <sheetData sheetId="5">
+        <row r="7">
+          <cell r="M7">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="8">
+          <cell r="M8">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="9">
+          <cell r="M9">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="10">
+          <cell r="M10">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="11">
+          <cell r="M11">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="15">
+          <cell r="M15">
+            <v>0</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="6"/>
+      <sheetData sheetId="7"/>
+      <sheetData sheetId="8"/>
+      <sheetData sheetId="9"/>
+      <sheetData sheetId="10"/>
+      <sheetData sheetId="11"/>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
+</file>
+
+<file path=xl/externalLinks/externalLink14.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <sheetNames>
+      <sheetName val="Nom. Sic. Sem. 1"/>
+      <sheetName val="Nom. Sic. Sem. 2"/>
+      <sheetName val="Nom. Sic. Sem. 3"/>
+      <sheetName val="Nom. Sic. Sem. 4"/>
+      <sheetName val="Nom. Sic. Sem. 5"/>
+      <sheetName val="Estadistica Mes"/>
     </sheetNames>
     <sheetDataSet>
       <sheetData sheetId="0" refreshError="1"/>
@@ -702,6 +827,16 @@
       <sheetData sheetId="3" refreshError="1"/>
       <sheetData sheetId="4" refreshError="1"/>
       <sheetData sheetId="5">
+        <row r="6">
+          <cell r="M6">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="7">
+          <cell r="M7">
+            <v>0</v>
+          </cell>
+        </row>
         <row r="8">
           <cell r="M8">
             <v>0</v>
@@ -717,6 +852,87 @@
             <v>0</v>
           </cell>
         </row>
+        <row r="14">
+          <cell r="M14">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="15">
+          <cell r="M15">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="16">
+          <cell r="M16">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="58">
+          <cell r="C58">
+            <v>0</v>
+          </cell>
+          <cell r="D58">
+            <v>0</v>
+          </cell>
+          <cell r="E58">
+            <v>0</v>
+          </cell>
+          <cell r="F58">
+            <v>0</v>
+          </cell>
+          <cell r="G58">
+            <v>0</v>
+          </cell>
+          <cell r="H58">
+            <v>0</v>
+          </cell>
+          <cell r="I58">
+            <v>0</v>
+          </cell>
+        </row>
+      </sheetData>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
+</file>
+
+<file path=xl/externalLinks/externalLink15.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <sheetNames>
+      <sheetName val="Nom. Sic. Sem. 1"/>
+      <sheetName val="Nom. Sic. Sem. 2"/>
+      <sheetName val="Nom. Sic. Sem. 3"/>
+      <sheetName val="Nom. Sic. Sem. 4"/>
+      <sheetName val="Nom. Sic. Sem. 5"/>
+      <sheetName val="Estadistica Mes"/>
+      <sheetName val="Cálculo del Cesta ticket"/>
+      <sheetName val="A.M.Prest.Soc."/>
+      <sheetName val="Sobre Sic. Sem. 1"/>
+      <sheetName val="Sobre Sic. Sem. 2"/>
+      <sheetName val="Sobre Sic. Sem. 3"/>
+      <sheetName val="Sobre Sic. Sem. 4"/>
+      <sheetName val="Sobre Sic. Sem. 5"/>
+      <sheetName val="Nomina Actualizada 31-03-2015"/>
+      <sheetName val="UTILIDADES 2018"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0" refreshError="1"/>
+      <sheetData sheetId="1" refreshError="1"/>
+      <sheetData sheetId="2" refreshError="1"/>
+      <sheetData sheetId="3" refreshError="1"/>
+      <sheetData sheetId="4" refreshError="1"/>
+      <sheetData sheetId="5">
+        <row r="9">
+          <cell r="M9">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="10">
+          <cell r="M10">
+            <v>0</v>
+          </cell>
+        </row>
         <row r="11">
           <cell r="M11">
             <v>0</v>
@@ -727,13 +943,18 @@
             <v>0</v>
           </cell>
         </row>
-        <row r="17">
-          <cell r="M17">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="18">
-          <cell r="M18">
+        <row r="13">
+          <cell r="M13">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="14">
+          <cell r="M14">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="15">
+          <cell r="M15">
             <v>0</v>
           </cell>
         </row>
@@ -742,26 +963,36 @@
             <v>0</v>
           </cell>
         </row>
-        <row r="40">
-          <cell r="C40">
-            <v>0</v>
-          </cell>
-          <cell r="D40">
-            <v>0</v>
-          </cell>
-          <cell r="E40">
-            <v>0</v>
-          </cell>
-          <cell r="F40">
-            <v>0</v>
-          </cell>
-          <cell r="G40">
-            <v>0</v>
-          </cell>
-          <cell r="H40">
-            <v>0</v>
-          </cell>
-          <cell r="I40">
+        <row r="20">
+          <cell r="M20">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="21">
+          <cell r="M21">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="63">
+          <cell r="C63">
+            <v>0</v>
+          </cell>
+          <cell r="D63">
+            <v>0</v>
+          </cell>
+          <cell r="E63">
+            <v>0</v>
+          </cell>
+          <cell r="F63">
+            <v>0</v>
+          </cell>
+          <cell r="G63">
+            <v>0</v>
+          </cell>
+          <cell r="H63">
+            <v>0</v>
+          </cell>
+          <cell r="I63">
             <v>0</v>
           </cell>
         </row>
@@ -775,6 +1006,1013 @@
       <sheetData sheetId="12" refreshError="1"/>
       <sheetData sheetId="13" refreshError="1"/>
       <sheetData sheetId="14" refreshError="1"/>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
+</file>
+
+<file path=xl/externalLinks/externalLink16.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <sheetNames>
+      <sheetName val="Nom. Sic. Sem. 1"/>
+      <sheetName val="Nom. Sic. Sem. 2"/>
+      <sheetName val="Nom. Sic. Sem. 3"/>
+      <sheetName val="Nom. Sic. Sem. 4"/>
+      <sheetName val="Nom. Sic. Sem. 5"/>
+      <sheetName val="Estadistica Mes"/>
+      <sheetName val="Cálculo del Cesta ticket"/>
+      <sheetName val="A.M.Prest.Soc."/>
+      <sheetName val="Sobre Sic. Sem. 1"/>
+      <sheetName val="Sobre Sic. Sem. 2"/>
+      <sheetName val="Sobre Sic. Sem. 3"/>
+      <sheetName val="Sobre Sic. Sem. 4"/>
+      <sheetName val="Sobre Sic. Sem. 5"/>
+      <sheetName val="Nomina Actualizada 31-03-2015"/>
+      <sheetName val="UTILIDADES 2018"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0" refreshError="1"/>
+      <sheetData sheetId="1" refreshError="1"/>
+      <sheetData sheetId="2" refreshError="1"/>
+      <sheetData sheetId="3" refreshError="1"/>
+      <sheetData sheetId="4" refreshError="1"/>
+      <sheetData sheetId="5">
+        <row r="9">
+          <cell r="M9">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="10">
+          <cell r="M10">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="11">
+          <cell r="M11">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="12">
+          <cell r="M12">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="13">
+          <cell r="M13">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="14">
+          <cell r="M14">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="15">
+          <cell r="M15">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="19">
+          <cell r="M19">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="20">
+          <cell r="M20">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="21">
+          <cell r="M21">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="63">
+          <cell r="C63">
+            <v>0</v>
+          </cell>
+          <cell r="D63">
+            <v>0</v>
+          </cell>
+          <cell r="E63">
+            <v>0</v>
+          </cell>
+          <cell r="F63">
+            <v>0</v>
+          </cell>
+          <cell r="G63">
+            <v>0</v>
+          </cell>
+          <cell r="H63">
+            <v>0</v>
+          </cell>
+          <cell r="I63">
+            <v>0</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="6" refreshError="1"/>
+      <sheetData sheetId="7" refreshError="1"/>
+      <sheetData sheetId="8" refreshError="1"/>
+      <sheetData sheetId="9" refreshError="1"/>
+      <sheetData sheetId="10" refreshError="1"/>
+      <sheetData sheetId="11" refreshError="1"/>
+      <sheetData sheetId="12" refreshError="1"/>
+      <sheetData sheetId="13" refreshError="1"/>
+      <sheetData sheetId="14" refreshError="1"/>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
+</file>
+
+<file path=xl/externalLinks/externalLink17.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <sheetNames>
+      <sheetName val="Nom. Sic. Sem. 1"/>
+      <sheetName val="Nom. Sic. Sem. 2"/>
+      <sheetName val="Nom. Sic. Sem. 3"/>
+      <sheetName val="Nom. Sic. Sem. 4"/>
+      <sheetName val="Nom. Sic. Sem. 5"/>
+      <sheetName val="Estadistica Mes"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0" refreshError="1"/>
+      <sheetData sheetId="1" refreshError="1"/>
+      <sheetData sheetId="2" refreshError="1"/>
+      <sheetData sheetId="3" refreshError="1"/>
+      <sheetData sheetId="4" refreshError="1"/>
+      <sheetData sheetId="5">
+        <row r="6">
+          <cell r="M6">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="7">
+          <cell r="M7">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="8">
+          <cell r="M8">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="9">
+          <cell r="M9">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="10">
+          <cell r="M10">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="14">
+          <cell r="M14">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="15">
+          <cell r="M15">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="16">
+          <cell r="M16">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="58">
+          <cell r="C58">
+            <v>0</v>
+          </cell>
+          <cell r="D58">
+            <v>0</v>
+          </cell>
+          <cell r="E58">
+            <v>0</v>
+          </cell>
+          <cell r="F58">
+            <v>0</v>
+          </cell>
+          <cell r="G58">
+            <v>0</v>
+          </cell>
+          <cell r="H58">
+            <v>0</v>
+          </cell>
+          <cell r="I58">
+            <v>0</v>
+          </cell>
+        </row>
+      </sheetData>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
+</file>
+
+<file path=xl/externalLinks/externalLink2.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <sheetNames>
+      <sheetName val="Nom. Sic. Sem. 1"/>
+      <sheetName val="Nom. Sic. Sem. 2"/>
+      <sheetName val="Nom. Sic. Sem. 3"/>
+      <sheetName val="Nom. Sic. Sem. 4"/>
+      <sheetName val="Nom. Sic. Sem. 5"/>
+      <sheetName val="Estadistica Mes"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0"/>
+      <sheetData sheetId="1"/>
+      <sheetData sheetId="2"/>
+      <sheetData sheetId="3"/>
+      <sheetData sheetId="4"/>
+      <sheetData sheetId="5">
+        <row r="6">
+          <cell r="M6">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="7">
+          <cell r="M7">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="8">
+          <cell r="M8">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="9">
+          <cell r="M9">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="10">
+          <cell r="M10">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="14">
+          <cell r="M14">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="15">
+          <cell r="M15">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="16">
+          <cell r="M16">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="58">
+          <cell r="C58">
+            <v>0</v>
+          </cell>
+          <cell r="D58">
+            <v>0</v>
+          </cell>
+          <cell r="E58">
+            <v>0</v>
+          </cell>
+          <cell r="F58">
+            <v>0</v>
+          </cell>
+          <cell r="G58">
+            <v>0</v>
+          </cell>
+          <cell r="H58">
+            <v>0</v>
+          </cell>
+          <cell r="I58">
+            <v>0</v>
+          </cell>
+        </row>
+      </sheetData>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
+</file>
+
+<file path=xl/externalLinks/externalLink3.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <sheetNames>
+      <sheetName val="Nom. Sic. Sem. 1"/>
+      <sheetName val="Nom. Sic. Sem. 2"/>
+      <sheetName val="Nom. Sic. Sem. 3"/>
+      <sheetName val="Nom. Sic. Sem. 4"/>
+      <sheetName val="Nom. Sic. Sem. 5"/>
+      <sheetName val="Estadistica Mes"/>
+      <sheetName val="Cálculo del Cesta ticket"/>
+      <sheetName val="A.M.Prest.Soc."/>
+      <sheetName val="Sobre Sic. Sem. 1"/>
+      <sheetName val="Sobre Sic. Sem. 2"/>
+      <sheetName val="Sobre Sic. Sem. 3"/>
+      <sheetName val="Sobre Sic. Sem. 4"/>
+      <sheetName val="Sobre Sic. Sem. 5"/>
+      <sheetName val="Nomina Actualizada 31-03-2015"/>
+      <sheetName val="UTILIDADES 2018"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0"/>
+      <sheetData sheetId="1"/>
+      <sheetData sheetId="2"/>
+      <sheetData sheetId="3"/>
+      <sheetData sheetId="4"/>
+      <sheetData sheetId="5">
+        <row r="9">
+          <cell r="M9">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="10">
+          <cell r="M10">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="11">
+          <cell r="M11">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="12">
+          <cell r="M12">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="13">
+          <cell r="M13">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="14">
+          <cell r="M14">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="15">
+          <cell r="M15">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="19">
+          <cell r="M19">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="20">
+          <cell r="M20">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="21">
+          <cell r="M21">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="63">
+          <cell r="C63">
+            <v>0</v>
+          </cell>
+          <cell r="D63">
+            <v>0</v>
+          </cell>
+          <cell r="E63">
+            <v>0</v>
+          </cell>
+          <cell r="F63">
+            <v>0</v>
+          </cell>
+          <cell r="G63">
+            <v>0</v>
+          </cell>
+          <cell r="H63">
+            <v>0</v>
+          </cell>
+          <cell r="I63">
+            <v>0</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="6"/>
+      <sheetData sheetId="7"/>
+      <sheetData sheetId="8"/>
+      <sheetData sheetId="9"/>
+      <sheetData sheetId="10"/>
+      <sheetData sheetId="11"/>
+      <sheetData sheetId="12"/>
+      <sheetData sheetId="13"/>
+      <sheetData sheetId="14"/>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
+</file>
+
+<file path=xl/externalLinks/externalLink4.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <sheetNames>
+      <sheetName val="Nom. Sic. Sem. 1"/>
+      <sheetName val="Nom. Sic. Sem. 2"/>
+      <sheetName val="Nom. Sic. Sem. 3"/>
+      <sheetName val="Nom. Sic. Sem. 4"/>
+      <sheetName val="Nom. Sic. Sem. 5"/>
+      <sheetName val="Estadistica Mes"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0"/>
+      <sheetData sheetId="1"/>
+      <sheetData sheetId="2"/>
+      <sheetData sheetId="3"/>
+      <sheetData sheetId="4"/>
+      <sheetData sheetId="5">
+        <row r="6">
+          <cell r="M6">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="7">
+          <cell r="M7">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="8">
+          <cell r="M8">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="9">
+          <cell r="M9">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="10">
+          <cell r="M10">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="14">
+          <cell r="M14">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="15">
+          <cell r="M15">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="16">
+          <cell r="M16">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="58">
+          <cell r="C58">
+            <v>0</v>
+          </cell>
+          <cell r="D58">
+            <v>0</v>
+          </cell>
+          <cell r="E58">
+            <v>0</v>
+          </cell>
+          <cell r="F58">
+            <v>0</v>
+          </cell>
+          <cell r="G58">
+            <v>0</v>
+          </cell>
+          <cell r="H58">
+            <v>0</v>
+          </cell>
+          <cell r="I58">
+            <v>0</v>
+          </cell>
+        </row>
+      </sheetData>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
+</file>
+
+<file path=xl/externalLinks/externalLink5.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <sheetNames>
+      <sheetName val="Nom. Sic. Sem. 1"/>
+      <sheetName val="Nom. Sic. Sem. 2"/>
+      <sheetName val="Nom. Sic. Sem. 3"/>
+      <sheetName val="Nom. Sic. Sem. 4"/>
+      <sheetName val="Nom. Sic. Sem. 5"/>
+      <sheetName val="Estadistica Mes"/>
+      <sheetName val="Cálculo del Cesta ticket"/>
+      <sheetName val="A.M.Prest.Soc."/>
+      <sheetName val="Sobre Sic. Sem. 1"/>
+      <sheetName val="Sobre Sic. Sem. 2"/>
+      <sheetName val="Sobre Sic. Sem. 3"/>
+      <sheetName val="Sobre Sic. Sem. 4"/>
+      <sheetName val="Sobre Sic. Sem. 5"/>
+      <sheetName val="Nomina Actualizada 31-03-2015"/>
+      <sheetName val="UTILIDADES 2018"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0"/>
+      <sheetData sheetId="1"/>
+      <sheetData sheetId="2"/>
+      <sheetData sheetId="3"/>
+      <sheetData sheetId="4"/>
+      <sheetData sheetId="5">
+        <row r="9">
+          <cell r="M9">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="10">
+          <cell r="M10">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="11">
+          <cell r="M11">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="12">
+          <cell r="M12">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="13">
+          <cell r="M13">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="14">
+          <cell r="M14">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="15">
+          <cell r="M15">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="19">
+          <cell r="M19">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="20">
+          <cell r="M20">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="21">
+          <cell r="M21">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="63">
+          <cell r="C63">
+            <v>0</v>
+          </cell>
+          <cell r="D63">
+            <v>0</v>
+          </cell>
+          <cell r="E63">
+            <v>0</v>
+          </cell>
+          <cell r="F63">
+            <v>0</v>
+          </cell>
+          <cell r="G63">
+            <v>0</v>
+          </cell>
+          <cell r="H63">
+            <v>0</v>
+          </cell>
+          <cell r="I63">
+            <v>0</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="6"/>
+      <sheetData sheetId="7"/>
+      <sheetData sheetId="8"/>
+      <sheetData sheetId="9"/>
+      <sheetData sheetId="10"/>
+      <sheetData sheetId="11"/>
+      <sheetData sheetId="12"/>
+      <sheetData sheetId="13"/>
+      <sheetData sheetId="14"/>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
+</file>
+
+<file path=xl/externalLinks/externalLink6.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <sheetNames>
+      <sheetName val="Nom. Sic. Sem. 1"/>
+      <sheetName val="Nom. Sic. Sem. 2"/>
+      <sheetName val="Nom. Sic. Sem. 3"/>
+      <sheetName val="Nom. Sic. Sem. 4"/>
+      <sheetName val="Nom. Sic. Sem. 5"/>
+      <sheetName val="Estadistica Mes"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0"/>
+      <sheetData sheetId="1"/>
+      <sheetData sheetId="2"/>
+      <sheetData sheetId="3"/>
+      <sheetData sheetId="4"/>
+      <sheetData sheetId="5">
+        <row r="6">
+          <cell r="M6">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="7">
+          <cell r="M7">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="8">
+          <cell r="M8">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="9">
+          <cell r="M9">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="10">
+          <cell r="M10">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="14">
+          <cell r="M14">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="15">
+          <cell r="M15">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="16">
+          <cell r="M16">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="58">
+          <cell r="C58">
+            <v>0</v>
+          </cell>
+          <cell r="D58">
+            <v>0</v>
+          </cell>
+          <cell r="E58">
+            <v>0</v>
+          </cell>
+          <cell r="F58">
+            <v>0</v>
+          </cell>
+          <cell r="G58">
+            <v>0</v>
+          </cell>
+          <cell r="H58">
+            <v>0</v>
+          </cell>
+          <cell r="I58">
+            <v>0</v>
+          </cell>
+        </row>
+      </sheetData>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
+</file>
+
+<file path=xl/externalLinks/externalLink7.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <sheetNames>
+      <sheetName val="Nom. Sic. Sem. 1"/>
+      <sheetName val="Nom. Sic. Sem. 2"/>
+      <sheetName val="Nom. Sic. Sem. 3"/>
+      <sheetName val="Nom. Sic. Sem. 4"/>
+      <sheetName val="Nom. Sic. Sem. 5"/>
+      <sheetName val="Estadistica Mes"/>
+      <sheetName val="Cálculo del Cesta ticket"/>
+      <sheetName val="A.M.Prest.Soc."/>
+      <sheetName val="Sobre Sic. Sem. 1"/>
+      <sheetName val="Sobre Sic. Sem. 2"/>
+      <sheetName val="Sobre Sic. Sem. 3"/>
+      <sheetName val="Sobre Sic. Sem. 4"/>
+      <sheetName val="Sobre Sic. Sem. 5"/>
+      <sheetName val="Nomina Actualizada 31-03-2015"/>
+      <sheetName val="UTILIDADES 2018"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0"/>
+      <sheetData sheetId="1"/>
+      <sheetData sheetId="2"/>
+      <sheetData sheetId="3"/>
+      <sheetData sheetId="4"/>
+      <sheetData sheetId="5">
+        <row r="9">
+          <cell r="M9">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="10">
+          <cell r="M10">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="11">
+          <cell r="M11">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="12">
+          <cell r="M12">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="13">
+          <cell r="M13">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="14">
+          <cell r="M14">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="15">
+          <cell r="M15">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="19">
+          <cell r="M19">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="20">
+          <cell r="M20">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="21">
+          <cell r="M21">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="63">
+          <cell r="C63">
+            <v>0</v>
+          </cell>
+          <cell r="D63">
+            <v>0</v>
+          </cell>
+          <cell r="E63">
+            <v>0</v>
+          </cell>
+          <cell r="F63">
+            <v>0</v>
+          </cell>
+          <cell r="G63">
+            <v>0</v>
+          </cell>
+          <cell r="H63">
+            <v>0</v>
+          </cell>
+          <cell r="I63">
+            <v>0</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="6"/>
+      <sheetData sheetId="7"/>
+      <sheetData sheetId="8"/>
+      <sheetData sheetId="9"/>
+      <sheetData sheetId="10"/>
+      <sheetData sheetId="11"/>
+      <sheetData sheetId="12"/>
+      <sheetData sheetId="13"/>
+      <sheetData sheetId="14"/>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
+</file>
+
+<file path=xl/externalLinks/externalLink8.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <sheetNames>
+      <sheetName val="Nom. Sic. Sem. 1"/>
+      <sheetName val="Nom. Sic. Sem. 2"/>
+      <sheetName val="Nom. Sic. Sem. 3"/>
+      <sheetName val="Nom. Sic. Sem. 4"/>
+      <sheetName val="Nom. Sic. Sem. 5"/>
+      <sheetName val="Estadistica Mes"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0"/>
+      <sheetData sheetId="1"/>
+      <sheetData sheetId="2"/>
+      <sheetData sheetId="3"/>
+      <sheetData sheetId="4"/>
+      <sheetData sheetId="5">
+        <row r="6">
+          <cell r="M6">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="8">
+          <cell r="M8">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="9">
+          <cell r="M9">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="10">
+          <cell r="M10">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="14">
+          <cell r="M14">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="15">
+          <cell r="M15">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="16">
+          <cell r="M16">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="58">
+          <cell r="C58">
+            <v>0</v>
+          </cell>
+          <cell r="D58">
+            <v>0</v>
+          </cell>
+          <cell r="E58">
+            <v>0</v>
+          </cell>
+          <cell r="F58">
+            <v>0</v>
+          </cell>
+          <cell r="G58">
+            <v>0</v>
+          </cell>
+          <cell r="H58">
+            <v>0</v>
+          </cell>
+          <cell r="I58">
+            <v>0</v>
+          </cell>
+        </row>
+      </sheetData>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
+</file>
+
+<file path=xl/externalLinks/externalLink9.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <sheetNames>
+      <sheetName val="Nom. Sic. Sem. 1"/>
+      <sheetName val="Nom. Sic. Sem. 2"/>
+      <sheetName val="Nom. Sic. Sem. 3"/>
+      <sheetName val="Nom. Sic. Sem. 4"/>
+      <sheetName val="Nom. Sic. Sem. 5"/>
+      <sheetName val="Estadistica Mes"/>
+      <sheetName val="Cálculo del Cesta ticket"/>
+      <sheetName val="A.M.Prest.Soc."/>
+      <sheetName val="Sobre Sic. Sem. 1"/>
+      <sheetName val="Sobre Sic. Sem. 2"/>
+      <sheetName val="Sobre Sic. Sem. 3"/>
+      <sheetName val="Sobre Sic. Sem. 4"/>
+      <sheetName val="Sobre Sic. Sem. 5"/>
+      <sheetName val="Nomina Actualizada 31-03-2015"/>
+      <sheetName val="UTILIDADES 2018"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0"/>
+      <sheetData sheetId="1"/>
+      <sheetData sheetId="2"/>
+      <sheetData sheetId="3"/>
+      <sheetData sheetId="4"/>
+      <sheetData sheetId="5">
+        <row r="9">
+          <cell r="M9">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="10">
+          <cell r="M10">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="11">
+          <cell r="M11">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="12">
+          <cell r="M12">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="13">
+          <cell r="M13">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="14">
+          <cell r="M14">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="15">
+          <cell r="M15">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="19">
+          <cell r="M19">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="20">
+          <cell r="M20">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="21">
+          <cell r="M21">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="60">
+          <cell r="C60">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="63">
+          <cell r="D63">
+            <v>0</v>
+          </cell>
+          <cell r="E63">
+            <v>0</v>
+          </cell>
+          <cell r="F63">
+            <v>0</v>
+          </cell>
+          <cell r="G63">
+            <v>0</v>
+          </cell>
+          <cell r="H63">
+            <v>0</v>
+          </cell>
+          <cell r="I63">
+            <v>0</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="6"/>
+      <sheetData sheetId="7"/>
+      <sheetData sheetId="8"/>
+      <sheetData sheetId="9"/>
+      <sheetData sheetId="10"/>
+      <sheetData sheetId="11"/>
+      <sheetData sheetId="12"/>
+      <sheetData sheetId="13"/>
+      <sheetData sheetId="14"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -1065,10 +2303,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M59"/>
+  <dimension ref="A1:M61"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A43" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="B52" sqref="B52"/>
+    <sheetView tabSelected="1" zoomScale="30" zoomScaleNormal="30" workbookViewId="0">
+      <selection activeCell="I4" sqref="I4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="26.25"/>
@@ -1079,21 +2317,21 @@
   <sheetData>
     <row r="1" spans="1:13" ht="50.1" customHeight="1"/>
     <row r="2" spans="1:13" ht="50.1" customHeight="1">
-      <c r="A2" s="15" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="15"/>
-      <c r="C2" s="15"/>
-      <c r="D2" s="15"/>
-      <c r="E2" s="15"/>
-      <c r="F2" s="15"/>
-      <c r="G2" s="15"/>
-      <c r="H2" s="15"/>
-      <c r="I2" s="15"/>
-      <c r="J2" s="15"/>
-      <c r="K2" s="15"/>
-      <c r="L2" s="15"/>
-      <c r="M2" s="15"/>
+      <c r="A2" s="17" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="17"/>
+      <c r="C2" s="17"/>
+      <c r="D2" s="17"/>
+      <c r="E2" s="17"/>
+      <c r="F2" s="17"/>
+      <c r="G2" s="17"/>
+      <c r="H2" s="17"/>
+      <c r="I2" s="17"/>
+      <c r="J2" s="17"/>
+      <c r="K2" s="17"/>
+      <c r="L2" s="17"/>
+      <c r="M2" s="17"/>
     </row>
     <row r="3" spans="1:13" ht="50.1" customHeight="1">
       <c r="A3" s="1" t="s">
@@ -1144,12 +2382,30 @@
         <f>'[1]Estadistica Mes'!$M$9+'[2]Estadistica Mes'!$M$6</f>
         <v>0</v>
       </c>
-      <c r="C4" s="1"/>
-      <c r="D4" s="2"/>
-      <c r="E4" s="1"/>
-      <c r="F4" s="1"/>
-      <c r="G4" s="1"/>
-      <c r="H4" s="1"/>
+      <c r="C4" s="4">
+        <f>'[3]Estadistica Mes'!$M$9+'[4]Estadistica Mes'!$M$6</f>
+        <v>0</v>
+      </c>
+      <c r="D4" s="16">
+        <f>'[5]Estadistica Mes'!$M$9+'[6]Estadistica Mes'!$M$6</f>
+        <v>0</v>
+      </c>
+      <c r="E4" s="4">
+        <f>'[7]Estadistica Mes'!$M$9+'[8]Estadistica Mes'!$M$6</f>
+        <v>0</v>
+      </c>
+      <c r="F4" s="4">
+        <f>'[9]Estadistica Mes'!$M$9+'[10]Estadistica Mes'!$M$6</f>
+        <v>0</v>
+      </c>
+      <c r="G4" s="4">
+        <f>'[14]Estadistica Mes'!$M$6+'[15]Estadistica Mes'!$M$9</f>
+        <v>0</v>
+      </c>
+      <c r="H4" s="4">
+        <f>'[16]Estadistica Mes'!$M$9+'[17]Estadistica Mes'!$M$6</f>
+        <v>0</v>
+      </c>
       <c r="I4" s="1"/>
       <c r="J4" s="1"/>
       <c r="K4" s="1"/>
@@ -1164,12 +2420,30 @@
         <f>'[1]Estadistica Mes'!$M$13+'[2]Estadistica Mes'!$M$8</f>
         <v>0</v>
       </c>
-      <c r="C5" s="1"/>
-      <c r="D5" s="2"/>
-      <c r="E5" s="1"/>
-      <c r="F5" s="1"/>
-      <c r="G5" s="1"/>
-      <c r="H5" s="1"/>
+      <c r="C5" s="4">
+        <f>'[3]Estadistica Mes'!$M$13+'[4]Estadistica Mes'!$M$8</f>
+        <v>0</v>
+      </c>
+      <c r="D5" s="16">
+        <f>'[5]Estadistica Mes'!$M$13+'[6]Estadistica Mes'!$M$8</f>
+        <v>0</v>
+      </c>
+      <c r="E5" s="4">
+        <f>'[7]Estadistica Mes'!$M$13+'[8]Estadistica Mes'!$M$8</f>
+        <v>0</v>
+      </c>
+      <c r="F5" s="4">
+        <f>'[9]Estadistica Mes'!$M$13+'[10]Estadistica Mes'!$M$8</f>
+        <v>0</v>
+      </c>
+      <c r="G5" s="4">
+        <f>'[15]Estadistica Mes'!$M$13+'[14]Estadistica Mes'!$M$8</f>
+        <v>0</v>
+      </c>
+      <c r="H5" s="4">
+        <f>'[16]Estadistica Mes'!$M$13+'[17]Estadistica Mes'!$M$8</f>
+        <v>0</v>
+      </c>
       <c r="I5" s="1"/>
       <c r="J5" s="1"/>
       <c r="K5" s="1"/>
@@ -1184,12 +2458,30 @@
         <f>'[1]Estadistica Mes'!$M$12+'[2]Estadistica Mes'!$M$7</f>
         <v>0</v>
       </c>
-      <c r="C6" s="1"/>
-      <c r="D6" s="2"/>
-      <c r="E6" s="1"/>
-      <c r="F6" s="1"/>
-      <c r="G6" s="1"/>
-      <c r="H6" s="1"/>
+      <c r="C6" s="4">
+        <f>'[3]Estadistica Mes'!$M$12+'[4]Estadistica Mes'!$M$7</f>
+        <v>0</v>
+      </c>
+      <c r="D6" s="16">
+        <f>'[5]Estadistica Mes'!$M$12+'[6]Estadistica Mes'!$M$7</f>
+        <v>0</v>
+      </c>
+      <c r="E6" s="4">
+        <f>'[7]Estadistica Mes'!$M$12+'[8]Estadistica Mes'!$M$8</f>
+        <v>0</v>
+      </c>
+      <c r="F6" s="4">
+        <f>'[9]Estadistica Mes'!$M$12+'[10]Estadistica Mes'!$M$7</f>
+        <v>0</v>
+      </c>
+      <c r="G6" s="4">
+        <f>'[15]Estadistica Mes'!$M$12+'[14]Estadistica Mes'!$M$7</f>
+        <v>0</v>
+      </c>
+      <c r="H6" s="4">
+        <f>'[16]Estadistica Mes'!$M$12+'[17]Estadistica Mes'!$M$7</f>
+        <v>0</v>
+      </c>
       <c r="I6" s="1"/>
       <c r="J6" s="1"/>
       <c r="K6" s="1"/>
@@ -1204,12 +2496,30 @@
         <f>'[1]Estadistica Mes'!$M$14+'[2]Estadistica Mes'!$M$9</f>
         <v>0</v>
       </c>
-      <c r="C7" s="1"/>
-      <c r="D7" s="2"/>
-      <c r="E7" s="1"/>
-      <c r="F7" s="1"/>
-      <c r="G7" s="1"/>
-      <c r="H7" s="1"/>
+      <c r="C7" s="4">
+        <f>'[3]Estadistica Mes'!$M$14+'[4]Estadistica Mes'!$M$9</f>
+        <v>0</v>
+      </c>
+      <c r="D7" s="16">
+        <f>'[5]Estadistica Mes'!$M$14+'[6]Estadistica Mes'!$M$9</f>
+        <v>0</v>
+      </c>
+      <c r="E7" s="4">
+        <f>'[7]Estadistica Mes'!$M$14+'[8]Estadistica Mes'!$M$9</f>
+        <v>0</v>
+      </c>
+      <c r="F7" s="4">
+        <f>'[9]Estadistica Mes'!$M$14+'[10]Estadistica Mes'!$M$9</f>
+        <v>0</v>
+      </c>
+      <c r="G7" s="4">
+        <f>'[15]Estadistica Mes'!$M$14+'[14]Estadistica Mes'!$M$9</f>
+        <v>0</v>
+      </c>
+      <c r="H7" s="4">
+        <f>'[16]Estadistica Mes'!$M$14+'[17]Estadistica Mes'!$M$9</f>
+        <v>0</v>
+      </c>
       <c r="I7" s="1"/>
       <c r="J7" s="1"/>
       <c r="K7" s="1"/>
@@ -1224,12 +2534,30 @@
         <f>'[1]Estadistica Mes'!$M$15+'[2]Estadistica Mes'!$M$10</f>
         <v>0</v>
       </c>
-      <c r="C8" s="1"/>
-      <c r="D8" s="2"/>
-      <c r="E8" s="1"/>
-      <c r="F8" s="1"/>
-      <c r="G8" s="1"/>
-      <c r="H8" s="1"/>
+      <c r="C8" s="4">
+        <f>'[3]Estadistica Mes'!$M$15+'[4]Estadistica Mes'!$M$10</f>
+        <v>0</v>
+      </c>
+      <c r="D8" s="16">
+        <f>'[5]Estadistica Mes'!$M$15+'[6]Estadistica Mes'!$M$10</f>
+        <v>0</v>
+      </c>
+      <c r="E8" s="4">
+        <f>'[7]Estadistica Mes'!$M$15+'[8]Estadistica Mes'!$M$10</f>
+        <v>0</v>
+      </c>
+      <c r="F8" s="4">
+        <f>'[9]Estadistica Mes'!$M$15+'[10]Estadistica Mes'!$M$10</f>
+        <v>0</v>
+      </c>
+      <c r="G8" s="4">
+        <f>'[15]Estadistica Mes'!$M$15+'[14]Estadistica Mes'!$M$10</f>
+        <v>0</v>
+      </c>
+      <c r="H8" s="4">
+        <f>'[16]Estadistica Mes'!$M$15+'[17]Estadistica Mes'!$M$10</f>
+        <v>0</v>
+      </c>
       <c r="I8" s="1"/>
       <c r="J8" s="1"/>
       <c r="K8" s="1"/>
@@ -1244,12 +2572,30 @@
         <f>'[1]Estadistica Mes'!$M$19+'[2]Estadistica Mes'!$M$14</f>
         <v>0</v>
       </c>
-      <c r="C9" s="1"/>
-      <c r="D9" s="2"/>
-      <c r="E9" s="1"/>
-      <c r="F9" s="1"/>
-      <c r="G9" s="1"/>
-      <c r="H9" s="1"/>
+      <c r="C9" s="4">
+        <f>'[3]Estadistica Mes'!$M$19+'[4]Estadistica Mes'!$M$14</f>
+        <v>0</v>
+      </c>
+      <c r="D9" s="16">
+        <f>'[5]Estadistica Mes'!$M$19+'[6]Estadistica Mes'!$M$14</f>
+        <v>0</v>
+      </c>
+      <c r="E9" s="4">
+        <f>'[7]Estadistica Mes'!$M$19+'[8]Estadistica Mes'!$M$14</f>
+        <v>0</v>
+      </c>
+      <c r="F9" s="4">
+        <f>'[9]Estadistica Mes'!$M$19+'[10]Estadistica Mes'!$M$14</f>
+        <v>0</v>
+      </c>
+      <c r="G9" s="4">
+        <f>'[15]Estadistica Mes'!$M$19+'[14]Estadistica Mes'!$M$14</f>
+        <v>0</v>
+      </c>
+      <c r="H9" s="4">
+        <f>'[16]Estadistica Mes'!$M$19+'[17]Estadistica Mes'!$M$14</f>
+        <v>0</v>
+      </c>
       <c r="I9" s="1"/>
       <c r="J9" s="1"/>
       <c r="K9" s="1"/>
@@ -1264,12 +2610,30 @@
         <f>'[1]Estadistica Mes'!$M$20+'[2]Estadistica Mes'!$M$15</f>
         <v>0</v>
       </c>
-      <c r="C10" s="1"/>
-      <c r="D10" s="2"/>
-      <c r="E10" s="1"/>
-      <c r="F10" s="1"/>
-      <c r="G10" s="1"/>
-      <c r="H10" s="1"/>
+      <c r="C10" s="4">
+        <f>'[3]Estadistica Mes'!$M$20+'[4]Estadistica Mes'!$M$15</f>
+        <v>0</v>
+      </c>
+      <c r="D10" s="16">
+        <f>'[5]Estadistica Mes'!$M$20+'[6]Estadistica Mes'!$M$15</f>
+        <v>0</v>
+      </c>
+      <c r="E10" s="4">
+        <f>'[7]Estadistica Mes'!$M$20+'[8]Estadistica Mes'!$M$15</f>
+        <v>0</v>
+      </c>
+      <c r="F10" s="4">
+        <f>'[9]Estadistica Mes'!$M$20+'[10]Estadistica Mes'!$M$15</f>
+        <v>0</v>
+      </c>
+      <c r="G10" s="4">
+        <f>'[15]Estadistica Mes'!$M$20+'[14]Estadistica Mes'!$M$15</f>
+        <v>0</v>
+      </c>
+      <c r="H10" s="4">
+        <f>'[16]Estadistica Mes'!$M$20+'[17]Estadistica Mes'!$M$15</f>
+        <v>0</v>
+      </c>
       <c r="I10" s="1"/>
       <c r="J10" s="1"/>
       <c r="K10" s="1"/>
@@ -1284,12 +2648,30 @@
         <f>'[1]Estadistica Mes'!$M$21+'[2]Estadistica Mes'!$M$16</f>
         <v>0</v>
       </c>
-      <c r="C11" s="1"/>
-      <c r="D11" s="2"/>
-      <c r="E11" s="1"/>
-      <c r="F11" s="1"/>
-      <c r="G11" s="1"/>
-      <c r="H11" s="1"/>
+      <c r="C11" s="4">
+        <f>'[3]Estadistica Mes'!$M$21+'[4]Estadistica Mes'!$M$16</f>
+        <v>0</v>
+      </c>
+      <c r="D11" s="16">
+        <f>'[5]Estadistica Mes'!$M$21+'[6]Estadistica Mes'!$M$16</f>
+        <v>0</v>
+      </c>
+      <c r="E11" s="4">
+        <f>'[7]Estadistica Mes'!$M$21+'[8]Estadistica Mes'!$M$16</f>
+        <v>0</v>
+      </c>
+      <c r="F11" s="4">
+        <f>'[9]Estadistica Mes'!$M$21+'[10]Estadistica Mes'!$M$16</f>
+        <v>0</v>
+      </c>
+      <c r="G11" s="4">
+        <f>'[15]Estadistica Mes'!$M$21+'[14]Estadistica Mes'!$M$16</f>
+        <v>0</v>
+      </c>
+      <c r="H11" s="4">
+        <f>'[16]Estadistica Mes'!$M$21+'[17]Estadistica Mes'!$M$16</f>
+        <v>0</v>
+      </c>
       <c r="I11" s="1"/>
       <c r="J11" s="1"/>
       <c r="K11" s="1"/>
@@ -1297,93 +2679,166 @@
       <c r="M11" s="1"/>
     </row>
     <row r="12" spans="1:13" ht="50.1" customHeight="1">
-      <c r="B12"/>
-      <c r="C12"/>
-      <c r="D12"/>
-      <c r="E12"/>
-      <c r="F12"/>
-      <c r="G12"/>
-      <c r="H12"/>
-      <c r="I12"/>
-      <c r="J12"/>
-      <c r="K12"/>
-      <c r="L12"/>
-      <c r="M12"/>
-    </row>
-    <row r="13" spans="1:13" ht="50.1" customHeight="1">
-      <c r="A13" s="11" t="s">
-        <v>3</v>
-      </c>
-      <c r="B13" s="9">
-        <f>'[1]Estadistica Mes'!$C$63+'[2]Estadistica Mes'!$C$58</f>
-        <v>0</v>
-      </c>
-      <c r="C13" s="9"/>
-      <c r="D13" s="9"/>
-      <c r="E13" s="9"/>
-      <c r="F13" s="9"/>
-      <c r="G13" s="9"/>
-      <c r="H13" s="9"/>
-      <c r="I13" s="1"/>
-      <c r="J13" s="1"/>
-      <c r="K13" s="1"/>
-      <c r="L13" s="1"/>
-      <c r="M13" s="1"/>
-    </row>
-    <row r="14" spans="1:13" ht="50.1" customHeight="1">
-      <c r="A14" s="11" t="s">
-        <v>22</v>
-      </c>
-      <c r="B14" s="9">
-        <f>'[1]Estadistica Mes'!$D$63+'[2]Estadistica Mes'!$D$58</f>
-        <v>0</v>
-      </c>
-      <c r="C14" s="9"/>
-      <c r="D14" s="2"/>
-      <c r="E14" s="9"/>
-      <c r="F14" s="9"/>
-      <c r="G14" s="9"/>
-      <c r="H14" s="9"/>
-      <c r="I14" s="9"/>
-      <c r="J14" s="9"/>
-      <c r="K14" s="9"/>
-      <c r="L14" s="9"/>
-      <c r="M14" s="9"/>
+      <c r="A12" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="B12" s="4">
+        <f>'[1]Estadistica Mes'!$M$10</f>
+        <v>0</v>
+      </c>
+      <c r="C12" s="4">
+        <f>'[3]Estadistica Mes'!$M$10</f>
+        <v>0</v>
+      </c>
+      <c r="D12" s="4">
+        <f>'[5]Estadistica Mes'!$M$10</f>
+        <v>0</v>
+      </c>
+      <c r="E12" s="4">
+        <f>'[7]Estadistica Mes'!$M$10</f>
+        <v>0</v>
+      </c>
+      <c r="F12" s="4">
+        <f>'[9]Estadistica Mes'!$M$10</f>
+        <v>0</v>
+      </c>
+      <c r="G12" s="4">
+        <f>'[15]Estadistica Mes'!$M$10</f>
+        <v>0</v>
+      </c>
+      <c r="H12" s="4">
+        <f>'[16]Estadistica Mes'!$M$10</f>
+        <v>0</v>
+      </c>
+      <c r="I12" s="9"/>
+      <c r="J12" s="9"/>
+      <c r="K12" s="9"/>
+      <c r="L12" s="9"/>
+      <c r="M12" s="9"/>
+    </row>
+    <row r="13" spans="1:13" ht="49.5" customHeight="1">
+      <c r="A13" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="B13" s="4">
+        <f>'[1]Estadistica Mes'!$M$11</f>
+        <v>0</v>
+      </c>
+      <c r="C13" s="4">
+        <f>'[3]Estadistica Mes'!$M$11</f>
+        <v>0</v>
+      </c>
+      <c r="D13" s="4">
+        <f>'[5]Estadistica Mes'!$M$11</f>
+        <v>0</v>
+      </c>
+      <c r="E13" s="4">
+        <f>'[7]Estadistica Mes'!$M$11</f>
+        <v>0</v>
+      </c>
+      <c r="F13" s="4">
+        <f>'[9]Estadistica Mes'!$M$11</f>
+        <v>0</v>
+      </c>
+      <c r="G13" s="4">
+        <f>'[15]Estadistica Mes'!$M$11</f>
+        <v>0</v>
+      </c>
+      <c r="H13" s="4">
+        <f>'[16]Estadistica Mes'!$M$11</f>
+        <v>0</v>
+      </c>
+      <c r="I13" s="9"/>
+      <c r="J13" s="9"/>
+      <c r="K13" s="9"/>
+      <c r="L13" s="9"/>
+      <c r="M13" s="9"/>
+    </row>
+    <row r="14" spans="1:13" ht="18" customHeight="1">
+      <c r="A14" s="9"/>
+      <c r="B14" s="15"/>
+      <c r="C14" s="15"/>
+      <c r="D14" s="4"/>
+      <c r="E14" s="15"/>
+      <c r="F14" s="15"/>
+      <c r="G14" s="15"/>
+      <c r="H14" s="15"/>
+      <c r="I14" s="15"/>
+      <c r="J14" s="15"/>
+      <c r="K14" s="15"/>
+      <c r="L14" s="15"/>
+      <c r="M14" s="15"/>
     </row>
     <row r="15" spans="1:13" ht="50.1" customHeight="1">
       <c r="A15" s="11" t="s">
-        <v>23</v>
+        <v>3</v>
       </c>
       <c r="B15" s="9">
-        <f>'[1]Estadistica Mes'!$E$63+'[2]Estadistica Mes'!$E$58</f>
-        <v>0</v>
-      </c>
-      <c r="C15" s="9"/>
-      <c r="D15" s="2"/>
-      <c r="E15" s="9"/>
-      <c r="F15" s="9"/>
-      <c r="G15" s="9"/>
-      <c r="H15" s="9"/>
-      <c r="I15" s="9"/>
-      <c r="J15" s="9"/>
-      <c r="K15" s="9"/>
-      <c r="L15" s="9"/>
-      <c r="M15" s="9"/>
+        <f>'[1]Estadistica Mes'!$C$63+'[2]Estadistica Mes'!$C$58</f>
+        <v>0</v>
+      </c>
+      <c r="C15" s="9">
+        <f>'[3]Estadistica Mes'!$C$63+'[4]Estadistica Mes'!$C$58</f>
+        <v>0</v>
+      </c>
+      <c r="D15" s="14">
+        <f>'[5]Estadistica Mes'!$C$63+'[6]Estadistica Mes'!$C$58</f>
+        <v>0</v>
+      </c>
+      <c r="E15" s="9">
+        <f>'[7]Estadistica Mes'!$C$63+'[8]Estadistica Mes'!$C$58</f>
+        <v>0</v>
+      </c>
+      <c r="F15" s="9">
+        <f>'[9]Estadistica Mes'!$C$60+'[10]Estadistica Mes'!$C$58</f>
+        <v>0</v>
+      </c>
+      <c r="G15" s="9">
+        <f>'[15]Estadistica Mes'!$C$63+'[14]Estadistica Mes'!$C$58</f>
+        <v>0</v>
+      </c>
+      <c r="H15" s="9">
+        <f>'[16]Estadistica Mes'!$C$63+'[17]Estadistica Mes'!$C$58</f>
+        <v>0</v>
+      </c>
+      <c r="I15" s="1"/>
+      <c r="J15" s="1"/>
+      <c r="K15" s="1"/>
+      <c r="L15" s="1"/>
+      <c r="M15" s="1"/>
     </row>
     <row r="16" spans="1:13" ht="50.1" customHeight="1">
-      <c r="A16" s="3" t="s">
-        <v>24</v>
+      <c r="A16" s="11" t="s">
+        <v>22</v>
       </c>
       <c r="B16" s="9">
-        <f>'[1]Estadistica Mes'!$F$63+'[2]Estadistica Mes'!$F$58</f>
-        <v>0</v>
-      </c>
-      <c r="C16" s="9"/>
-      <c r="D16" s="2"/>
-      <c r="E16" s="9"/>
-      <c r="F16" s="9"/>
-      <c r="G16" s="9"/>
-      <c r="H16" s="9"/>
+        <f>'[1]Estadistica Mes'!$D$63+'[2]Estadistica Mes'!$D$58</f>
+        <v>0</v>
+      </c>
+      <c r="C16" s="9">
+        <f>'[3]Estadistica Mes'!$D$63+'[4]Estadistica Mes'!$D$58</f>
+        <v>0</v>
+      </c>
+      <c r="D16" s="2">
+        <f>'[5]Estadistica Mes'!$D$63+'[6]Estadistica Mes'!$D$58</f>
+        <v>0</v>
+      </c>
+      <c r="E16" s="9">
+        <f>'[7]Estadistica Mes'!$D$63+'[8]Estadistica Mes'!$D$58</f>
+        <v>0</v>
+      </c>
+      <c r="F16" s="9">
+        <f>'[9]Estadistica Mes'!$D$63+'[10]Estadistica Mes'!$D$58</f>
+        <v>0</v>
+      </c>
+      <c r="G16" s="9">
+        <f>'[15]Estadistica Mes'!$D$63+'[14]Estadistica Mes'!$D$58</f>
+        <v>0</v>
+      </c>
+      <c r="H16" s="9">
+        <f>'[16]Estadistica Mes'!$D$63+'[17]Estadistica Mes'!$D$58</f>
+        <v>0</v>
+      </c>
       <c r="I16" s="9"/>
       <c r="J16" s="9"/>
       <c r="K16" s="9"/>
@@ -1391,19 +2846,37 @@
       <c r="M16" s="9"/>
     </row>
     <row r="17" spans="1:13" ht="50.1" customHeight="1">
-      <c r="A17" s="12" t="s">
-        <v>25</v>
+      <c r="A17" s="11" t="s">
+        <v>23</v>
       </c>
       <c r="B17" s="9">
-        <f>'[1]Estadistica Mes'!$G$63+'[2]Estadistica Mes'!$G$58</f>
-        <v>0</v>
-      </c>
-      <c r="C17" s="9"/>
-      <c r="D17" s="2"/>
-      <c r="E17" s="9"/>
-      <c r="F17" s="9"/>
-      <c r="G17" s="9"/>
-      <c r="H17" s="9"/>
+        <f>'[1]Estadistica Mes'!$E$63+'[2]Estadistica Mes'!$E$58</f>
+        <v>0</v>
+      </c>
+      <c r="C17" s="9">
+        <f>'[3]Estadistica Mes'!$E$63+'[4]Estadistica Mes'!$E$58</f>
+        <v>0</v>
+      </c>
+      <c r="D17" s="2">
+        <f>'[5]Estadistica Mes'!$E$63+'[6]Estadistica Mes'!$E$58</f>
+        <v>0</v>
+      </c>
+      <c r="E17" s="9">
+        <f>'[7]Estadistica Mes'!$E$63+'[8]Estadistica Mes'!$E$58</f>
+        <v>0</v>
+      </c>
+      <c r="F17" s="9">
+        <f>'[9]Estadistica Mes'!$E$63+'[10]Estadistica Mes'!$F$58</f>
+        <v>0</v>
+      </c>
+      <c r="G17" s="9">
+        <f>'[15]Estadistica Mes'!$E$63+'[14]Estadistica Mes'!$E$58</f>
+        <v>0</v>
+      </c>
+      <c r="H17" s="9">
+        <f>'[16]Estadistica Mes'!$E$63+'[17]Estadistica Mes'!$E$58</f>
+        <v>0</v>
+      </c>
       <c r="I17" s="9"/>
       <c r="J17" s="9"/>
       <c r="K17" s="9"/>
@@ -1412,18 +2885,36 @@
     </row>
     <row r="18" spans="1:13" ht="50.1" customHeight="1">
       <c r="A18" s="3" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B18" s="9">
-        <f>'[1]Estadistica Mes'!$H$63+'[2]Estadistica Mes'!$H$58</f>
-        <v>0</v>
-      </c>
-      <c r="C18" s="9"/>
-      <c r="D18" s="2"/>
-      <c r="E18" s="9"/>
-      <c r="F18" s="9"/>
-      <c r="G18" s="9"/>
-      <c r="H18" s="9"/>
+        <f>'[1]Estadistica Mes'!$F$63+'[2]Estadistica Mes'!$F$58</f>
+        <v>0</v>
+      </c>
+      <c r="C18" s="9">
+        <f>'[3]Estadistica Mes'!$F$63+'[4]Estadistica Mes'!$F$58</f>
+        <v>0</v>
+      </c>
+      <c r="D18" s="2">
+        <f>'[5]Estadistica Mes'!$F$63+'[6]Estadistica Mes'!$F$58</f>
+        <v>0</v>
+      </c>
+      <c r="E18" s="9">
+        <f>'[7]Estadistica Mes'!$F$63+'[8]Estadistica Mes'!$F$58</f>
+        <v>0</v>
+      </c>
+      <c r="F18" s="9">
+        <f>'[9]Estadistica Mes'!$F$63+'[10]Estadistica Mes'!$F$58</f>
+        <v>0</v>
+      </c>
+      <c r="G18" s="9">
+        <f>'[15]Estadistica Mes'!$F$63+'[14]Estadistica Mes'!$F$58</f>
+        <v>0</v>
+      </c>
+      <c r="H18" s="9">
+        <f>'[16]Estadistica Mes'!$F$63+'[17]Estadistica Mes'!$F$58</f>
+        <v>0</v>
+      </c>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
       <c r="K18" s="9"/>
@@ -1431,88 +2922,142 @@
       <c r="M18" s="9"/>
     </row>
     <row r="19" spans="1:13" ht="50.1" customHeight="1">
-      <c r="A19" s="3" t="s">
-        <v>27</v>
+      <c r="A19" s="12" t="s">
+        <v>25</v>
       </c>
       <c r="B19" s="9">
-        <f>'[1]Estadistica Mes'!$I$63+'[2]Estadistica Mes'!$I$58</f>
-        <v>0</v>
-      </c>
-      <c r="C19" s="9"/>
-      <c r="D19" s="2"/>
-      <c r="E19" s="9"/>
-      <c r="F19" s="9"/>
-      <c r="G19" s="9"/>
-      <c r="H19" s="9"/>
+        <f>'[1]Estadistica Mes'!$G$63+'[2]Estadistica Mes'!$G$58</f>
+        <v>0</v>
+      </c>
+      <c r="C19" s="9">
+        <f>'[3]Estadistica Mes'!$G$63+'[4]Estadistica Mes'!$G$58</f>
+        <v>0</v>
+      </c>
+      <c r="D19" s="2">
+        <f>'[5]Estadistica Mes'!$G$63+'[6]Estadistica Mes'!$G$58</f>
+        <v>0</v>
+      </c>
+      <c r="E19" s="9">
+        <f>'[7]Estadistica Mes'!$G$63+'[8]Estadistica Mes'!$G$58</f>
+        <v>0</v>
+      </c>
+      <c r="F19" s="9">
+        <f>'[9]Estadistica Mes'!$G$63+'[10]Estadistica Mes'!$G$58</f>
+        <v>0</v>
+      </c>
+      <c r="G19" s="9">
+        <f>'[15]Estadistica Mes'!$G$63+'[14]Estadistica Mes'!$G$58</f>
+        <v>0</v>
+      </c>
+      <c r="H19" s="9">
+        <f>'[16]Estadistica Mes'!$G$63+'[17]Estadistica Mes'!$G$58</f>
+        <v>0</v>
+      </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
       <c r="K19" s="9"/>
       <c r="L19" s="9"/>
       <c r="M19" s="9"/>
     </row>
-    <row r="30" spans="1:13" ht="50.1" customHeight="1">
-      <c r="A30" s="15" t="s">
+    <row r="20" spans="1:13" ht="50.1" customHeight="1">
+      <c r="A20" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="B20" s="9">
+        <f>'[1]Estadistica Mes'!$H$63+'[2]Estadistica Mes'!$H$58</f>
+        <v>0</v>
+      </c>
+      <c r="C20" s="9">
+        <f>'[3]Estadistica Mes'!$H$63+'[4]Estadistica Mes'!$H$58</f>
+        <v>0</v>
+      </c>
+      <c r="D20" s="2">
+        <f>'[5]Estadistica Mes'!$H$63+'[6]Estadistica Mes'!$H$58</f>
+        <v>0</v>
+      </c>
+      <c r="E20" s="9">
+        <f>'[7]Estadistica Mes'!$H$63+'[8]Estadistica Mes'!$H$58</f>
+        <v>0</v>
+      </c>
+      <c r="F20" s="9">
+        <f>'[9]Estadistica Mes'!$H$63+'[10]Estadistica Mes'!$H$58</f>
+        <v>0</v>
+      </c>
+      <c r="G20" s="9">
+        <f>'[15]Estadistica Mes'!$H$63+'[14]Estadistica Mes'!$H$58</f>
+        <v>0</v>
+      </c>
+      <c r="H20" s="9">
+        <f>'[16]Estadistica Mes'!$H$63+'[17]Estadistica Mes'!$H$58</f>
+        <v>0</v>
+      </c>
+      <c r="I20" s="9"/>
+      <c r="J20" s="9"/>
+      <c r="K20" s="9"/>
+      <c r="L20" s="9"/>
+      <c r="M20" s="9"/>
+    </row>
+    <row r="21" spans="1:13" ht="50.1" customHeight="1">
+      <c r="A21" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="B21" s="9">
+        <f>'[1]Estadistica Mes'!$I$63+'[2]Estadistica Mes'!$I$58</f>
+        <v>0</v>
+      </c>
+      <c r="C21" s="9">
+        <f>'[3]Estadistica Mes'!$I$63+'[4]Estadistica Mes'!$I$58</f>
+        <v>0</v>
+      </c>
+      <c r="D21" s="2">
+        <f>'[5]Estadistica Mes'!$I$63+'[6]Estadistica Mes'!$I$58</f>
+        <v>0</v>
+      </c>
+      <c r="E21" s="9">
+        <f>'[7]Estadistica Mes'!$I$63+'[8]Estadistica Mes'!$I$58</f>
+        <v>0</v>
+      </c>
+      <c r="F21" s="9">
+        <f>'[9]Estadistica Mes'!$I$63+'[10]Estadistica Mes'!$I$58</f>
+        <v>0</v>
+      </c>
+      <c r="G21" s="9">
+        <f>'[15]Estadistica Mes'!$I$63+'[14]Estadistica Mes'!$I$58</f>
+        <v>0</v>
+      </c>
+      <c r="H21" s="9">
+        <f>'[16]Estadistica Mes'!$I$63+'[17]Estadistica Mes'!$I$58</f>
+        <v>0</v>
+      </c>
+      <c r="I21" s="9"/>
+      <c r="J21" s="9"/>
+      <c r="K21" s="9"/>
+      <c r="L21" s="9"/>
+      <c r="M21" s="9"/>
+    </row>
+    <row r="32" spans="1:13" ht="50.1" customHeight="1">
+      <c r="A32" s="17" t="s">
         <v>28</v>
       </c>
-      <c r="B30" s="15"/>
-      <c r="C30" s="15"/>
-      <c r="D30" s="15"/>
-      <c r="E30" s="15"/>
-      <c r="F30" s="15"/>
-      <c r="G30" s="15"/>
-      <c r="H30" s="15"/>
-      <c r="I30" s="15"/>
-      <c r="J30" s="15"/>
-      <c r="K30" s="15"/>
-      <c r="L30" s="15"/>
-      <c r="M30" s="15"/>
-    </row>
-    <row r="31" spans="1:13" ht="50.1" customHeight="1">
-      <c r="A31" s="9" t="s">
-        <v>29</v>
-      </c>
-      <c r="B31" s="4">
-        <f>'[5]ESTADISTICA MES'!$M$8</f>
-        <v>0</v>
-      </c>
-      <c r="C31" s="9"/>
-      <c r="D31" s="9"/>
-      <c r="E31" s="9"/>
-      <c r="F31" s="9"/>
-      <c r="G31" s="9"/>
-      <c r="H31" s="9"/>
-      <c r="I31" s="9"/>
-      <c r="J31" s="9"/>
-      <c r="K31" s="9"/>
-      <c r="L31" s="9"/>
-      <c r="M31" s="9"/>
-    </row>
-    <row r="32" spans="1:13" ht="50.1" customHeight="1">
-      <c r="A32" s="9" t="s">
-        <v>30</v>
-      </c>
-      <c r="B32" s="4">
-        <f>'[5]ESTADISTICA MES'!$M$10</f>
-        <v>0</v>
-      </c>
-      <c r="C32" s="9"/>
-      <c r="D32" s="9"/>
-      <c r="E32" s="9"/>
-      <c r="F32" s="9"/>
-      <c r="G32" s="9"/>
-      <c r="H32" s="9"/>
-      <c r="I32" s="9"/>
-      <c r="J32" s="9"/>
-      <c r="K32" s="9"/>
-      <c r="L32" s="9"/>
-      <c r="M32" s="9"/>
+      <c r="B32" s="17"/>
+      <c r="C32" s="17"/>
+      <c r="D32" s="17"/>
+      <c r="E32" s="17"/>
+      <c r="F32" s="17"/>
+      <c r="G32" s="17"/>
+      <c r="H32" s="17"/>
+      <c r="I32" s="17"/>
+      <c r="J32" s="17"/>
+      <c r="K32" s="17"/>
+      <c r="L32" s="17"/>
+      <c r="M32" s="17"/>
     </row>
     <row r="33" spans="1:13" ht="50.1" customHeight="1">
       <c r="A33" s="9" t="s">
-        <v>4</v>
+        <v>29</v>
       </c>
       <c r="B33" s="4">
-        <f>'[5]ESTADISTICA MES'!$M$9</f>
+        <f>'[11]ESTADISTICA MES'!$M$8</f>
         <v>0</v>
       </c>
       <c r="C33" s="9"/>
@@ -1529,10 +3074,10 @@
     </row>
     <row r="34" spans="1:13" ht="50.1" customHeight="1">
       <c r="A34" s="9" t="s">
-        <v>3</v>
+        <v>30</v>
       </c>
       <c r="B34" s="4">
-        <f>'[5]ESTADISTICA MES'!$M$12</f>
+        <f>'[11]ESTADISTICA MES'!$M$10</f>
         <v>0</v>
       </c>
       <c r="C34" s="9"/>
@@ -1549,10 +3094,10 @@
     </row>
     <row r="35" spans="1:13" ht="50.1" customHeight="1">
       <c r="A35" s="9" t="s">
-        <v>31</v>
+        <v>4</v>
       </c>
       <c r="B35" s="4">
-        <f>'[5]ESTADISTICA MES'!$M$11</f>
+        <f>'[11]ESTADISTICA MES'!$M$9</f>
         <v>0</v>
       </c>
       <c r="C35" s="9"/>
@@ -1569,10 +3114,10 @@
     </row>
     <row r="36" spans="1:13" ht="50.1" customHeight="1">
       <c r="A36" s="9" t="s">
-        <v>32</v>
+        <v>3</v>
       </c>
       <c r="B36" s="4">
-        <f>'[5]ESTADISTICA MES'!$M$17</f>
+        <f>'[11]ESTADISTICA MES'!$M$12</f>
         <v>0</v>
       </c>
       <c r="C36" s="9"/>
@@ -1589,10 +3134,10 @@
     </row>
     <row r="37" spans="1:13" ht="50.1" customHeight="1">
       <c r="A37" s="9" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B37" s="4">
-        <f>'[5]ESTADISTICA MES'!$M$18</f>
+        <f>'[11]ESTADISTICA MES'!$M$11</f>
         <v>0</v>
       </c>
       <c r="C37" s="9"/>
@@ -1609,10 +3154,10 @@
     </row>
     <row r="38" spans="1:13" ht="50.1" customHeight="1">
       <c r="A38" s="9" t="s">
-        <v>7</v>
+        <v>32</v>
       </c>
       <c r="B38" s="4">
-        <f>'[5]ESTADISTICA MES'!$M$19</f>
+        <f>'[11]ESTADISTICA MES'!$M$17</f>
         <v>0</v>
       </c>
       <c r="C38" s="9"/>
@@ -1628,11 +3173,11 @@
       <c r="M38" s="9"/>
     </row>
     <row r="39" spans="1:13" ht="50.1" customHeight="1">
-      <c r="A39" s="5" t="s">
-        <v>35</v>
+      <c r="A39" s="9" t="s">
+        <v>33</v>
       </c>
       <c r="B39" s="4">
-        <f>'[4]Estadistica Mes'!$M$7</f>
+        <f>'[11]ESTADISTICA MES'!$M$18</f>
         <v>0</v>
       </c>
       <c r="C39" s="9"/>
@@ -1648,11 +3193,11 @@
       <c r="M39" s="9"/>
     </row>
     <row r="40" spans="1:13" ht="50.1" customHeight="1">
-      <c r="A40" s="5" t="s">
-        <v>36</v>
+      <c r="A40" s="9" t="s">
+        <v>7</v>
       </c>
       <c r="B40" s="4">
-        <f>'[4]Estadistica Mes'!$M$8</f>
+        <f>'[11]ESTADISTICA MES'!$M$19</f>
         <v>0</v>
       </c>
       <c r="C40" s="9"/>
@@ -1669,10 +3214,10 @@
     </row>
     <row r="41" spans="1:13" ht="50.1" customHeight="1">
       <c r="A41" s="5" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B41" s="4">
-        <f>'[4]Estadistica Mes'!$M$9</f>
+        <f>'[12]Estadistica Mes'!$M$7</f>
         <v>0</v>
       </c>
       <c r="C41" s="9"/>
@@ -1688,11 +3233,11 @@
       <c r="M41" s="9"/>
     </row>
     <row r="42" spans="1:13" ht="50.1" customHeight="1">
-      <c r="A42" s="13" t="s">
-        <v>38</v>
+      <c r="A42" s="5" t="s">
+        <v>36</v>
       </c>
       <c r="B42" s="4">
-        <f>'[4]Estadistica Mes'!$M$10</f>
+        <f>'[12]Estadistica Mes'!$M$8</f>
         <v>0</v>
       </c>
       <c r="C42" s="9"/>
@@ -1708,11 +3253,11 @@
       <c r="M42" s="9"/>
     </row>
     <row r="43" spans="1:13" ht="50.1" customHeight="1">
-      <c r="A43" s="3" t="s">
-        <v>39</v>
+      <c r="A43" s="5" t="s">
+        <v>37</v>
       </c>
       <c r="B43" s="4">
-        <f>'[4]Estadistica Mes'!$M$11</f>
+        <f>'[12]Estadistica Mes'!$M$9</f>
         <v>0</v>
       </c>
       <c r="C43" s="9"/>
@@ -1728,11 +3273,11 @@
       <c r="M43" s="9"/>
     </row>
     <row r="44" spans="1:13" ht="50.1" customHeight="1">
-      <c r="A44" s="6" t="s">
-        <v>40</v>
+      <c r="A44" s="13" t="s">
+        <v>38</v>
       </c>
       <c r="B44" s="4">
-        <f>'[4]Estadistica Mes'!$M$12</f>
+        <f>'[12]Estadistica Mes'!$M$10</f>
         <v>0</v>
       </c>
       <c r="C44" s="9"/>
@@ -1749,10 +3294,10 @@
     </row>
     <row r="45" spans="1:13" ht="50.1" customHeight="1">
       <c r="A45" s="3" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B45" s="4">
-        <f>'[3]Estadistica Mes'!$M$7</f>
+        <f>'[12]Estadistica Mes'!$M$11</f>
         <v>0</v>
       </c>
       <c r="C45" s="9"/>
@@ -1768,11 +3313,11 @@
       <c r="M45" s="9"/>
     </row>
     <row r="46" spans="1:13" ht="50.1" customHeight="1">
-      <c r="A46" s="3" t="s">
-        <v>42</v>
+      <c r="A46" s="6" t="s">
+        <v>40</v>
       </c>
       <c r="B46" s="4">
-        <f>'[3]Estadistica Mes'!$M$8</f>
+        <f>'[12]Estadistica Mes'!$M$12</f>
         <v>0</v>
       </c>
       <c r="C46" s="9"/>
@@ -1789,10 +3334,10 @@
     </row>
     <row r="47" spans="1:13" ht="50.1" customHeight="1">
       <c r="A47" s="3" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B47" s="4">
-        <f>'[3]Estadistica Mes'!$M$9</f>
+        <f>'[13]Estadistica Mes'!$M$7</f>
         <v>0</v>
       </c>
       <c r="C47" s="9"/>
@@ -1809,10 +3354,10 @@
     </row>
     <row r="48" spans="1:13" ht="50.1" customHeight="1">
       <c r="A48" s="3" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B48" s="4">
-        <f>'[3]Estadistica Mes'!$M$10</f>
+        <f>'[13]Estadistica Mes'!$M$8</f>
         <v>0</v>
       </c>
       <c r="C48" s="9"/>
@@ -1829,10 +3374,10 @@
     </row>
     <row r="49" spans="1:13" ht="50.1" customHeight="1">
       <c r="A49" s="3" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B49" s="4">
-        <f>'[3]Estadistica Mes'!$M$11</f>
+        <f>'[13]Estadistica Mes'!$M$9</f>
         <v>0</v>
       </c>
       <c r="C49" s="9"/>
@@ -1848,11 +3393,11 @@
       <c r="M49" s="9"/>
     </row>
     <row r="50" spans="1:13" ht="50.1" customHeight="1">
-      <c r="A50" s="9" t="s">
-        <v>46</v>
+      <c r="A50" s="3" t="s">
+        <v>44</v>
       </c>
       <c r="B50" s="4">
-        <f>'[3]Estadistica Mes'!$M$15</f>
+        <f>'[13]Estadistica Mes'!$M$10</f>
         <v>0</v>
       </c>
       <c r="C50" s="9"/>
@@ -1868,11 +3413,11 @@
       <c r="M50" s="9"/>
     </row>
     <row r="51" spans="1:13" ht="50.1" customHeight="1">
-      <c r="A51" s="9" t="s">
-        <v>47</v>
+      <c r="A51" s="3" t="s">
+        <v>45</v>
       </c>
       <c r="B51" s="4">
-        <f>'[4]Estadistica Mes'!$M$15</f>
+        <f>'[13]Estadistica Mes'!$M$11</f>
         <v>0</v>
       </c>
       <c r="C51" s="9"/>
@@ -1887,12 +3432,32 @@
       <c r="L51" s="9"/>
       <c r="M51" s="9"/>
     </row>
+    <row r="52" spans="1:13" ht="50.1" customHeight="1">
+      <c r="A52" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="B52" s="4">
+        <f>'[13]Estadistica Mes'!$M$15</f>
+        <v>0</v>
+      </c>
+      <c r="C52" s="9"/>
+      <c r="D52" s="9"/>
+      <c r="E52" s="9"/>
+      <c r="F52" s="9"/>
+      <c r="G52" s="9"/>
+      <c r="H52" s="9"/>
+      <c r="I52" s="9"/>
+      <c r="J52" s="9"/>
+      <c r="K52" s="9"/>
+      <c r="L52" s="9"/>
+      <c r="M52" s="9"/>
+    </row>
     <row r="53" spans="1:13" ht="50.1" customHeight="1">
-      <c r="A53" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="B53" s="14">
-        <f>'[5]ESTADISTICA MES'!$C$40</f>
+      <c r="A53" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="B53" s="4">
+        <f>'[12]Estadistica Mes'!$M$15</f>
         <v>0</v>
       </c>
       <c r="C53" s="9"/>
@@ -1907,32 +3472,12 @@
       <c r="L53" s="9"/>
       <c r="M53" s="9"/>
     </row>
-    <row r="54" spans="1:13" ht="50.1" customHeight="1">
-      <c r="A54" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="B54" s="14">
-        <f>'[5]ESTADISTICA MES'!$D$40</f>
-        <v>0</v>
-      </c>
-      <c r="C54" s="9"/>
-      <c r="D54" s="9"/>
-      <c r="E54" s="9"/>
-      <c r="F54" s="9"/>
-      <c r="G54" s="9"/>
-      <c r="H54" s="9"/>
-      <c r="I54" s="9"/>
-      <c r="J54" s="9"/>
-      <c r="K54" s="9"/>
-      <c r="L54" s="9"/>
-      <c r="M54" s="9"/>
-    </row>
     <row r="55" spans="1:13" ht="50.1" customHeight="1">
       <c r="A55" s="3" t="s">
-        <v>34</v>
+        <v>3</v>
       </c>
       <c r="B55" s="14">
-        <f>'[5]ESTADISTICA MES'!$E$40</f>
+        <f>'[11]ESTADISTICA MES'!$C$40</f>
         <v>0</v>
       </c>
       <c r="C55" s="9"/>
@@ -1949,10 +3494,10 @@
     </row>
     <row r="56" spans="1:13" ht="50.1" customHeight="1">
       <c r="A56" s="3" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B56" s="14">
-        <f>'[5]ESTADISTICA MES'!$F$40</f>
+        <f>'[11]ESTADISTICA MES'!$D$40</f>
         <v>0</v>
       </c>
       <c r="C56" s="9"/>
@@ -1969,10 +3514,10 @@
     </row>
     <row r="57" spans="1:13" ht="50.1" customHeight="1">
       <c r="A57" s="3" t="s">
-        <v>25</v>
+        <v>34</v>
       </c>
       <c r="B57" s="14">
-        <f>'[5]ESTADISTICA MES'!$G$40</f>
+        <f>'[11]ESTADISTICA MES'!$E$40</f>
         <v>0</v>
       </c>
       <c r="C57" s="9"/>
@@ -1989,10 +3534,10 @@
     </row>
     <row r="58" spans="1:13" ht="50.1" customHeight="1">
       <c r="A58" s="3" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B58" s="14">
-        <f>'[5]ESTADISTICA MES'!$H$40</f>
+        <f>'[11]ESTADISTICA MES'!$F$40</f>
         <v>0</v>
       </c>
       <c r="C58" s="9"/>
@@ -2009,10 +3554,10 @@
     </row>
     <row r="59" spans="1:13" ht="50.1" customHeight="1">
       <c r="A59" s="3" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B59" s="14">
-        <f>'[5]ESTADISTICA MES'!$I$40</f>
+        <f>'[11]ESTADISTICA MES'!$G$40</f>
         <v>0</v>
       </c>
       <c r="C59" s="9"/>
@@ -2027,10 +3572,50 @@
       <c r="L59" s="9"/>
       <c r="M59" s="9"/>
     </row>
+    <row r="60" spans="1:13" ht="50.1" customHeight="1">
+      <c r="A60" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="B60" s="14">
+        <f>'[11]ESTADISTICA MES'!$H$40</f>
+        <v>0</v>
+      </c>
+      <c r="C60" s="9"/>
+      <c r="D60" s="9"/>
+      <c r="E60" s="9"/>
+      <c r="F60" s="9"/>
+      <c r="G60" s="9"/>
+      <c r="H60" s="9"/>
+      <c r="I60" s="9"/>
+      <c r="J60" s="9"/>
+      <c r="K60" s="9"/>
+      <c r="L60" s="9"/>
+      <c r="M60" s="9"/>
+    </row>
+    <row r="61" spans="1:13" ht="50.1" customHeight="1">
+      <c r="A61" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="B61" s="14">
+        <f>'[11]ESTADISTICA MES'!$I$40</f>
+        <v>0</v>
+      </c>
+      <c r="C61" s="9"/>
+      <c r="D61" s="9"/>
+      <c r="E61" s="9"/>
+      <c r="F61" s="9"/>
+      <c r="G61" s="9"/>
+      <c r="H61" s="9"/>
+      <c r="I61" s="9"/>
+      <c r="J61" s="9"/>
+      <c r="K61" s="9"/>
+      <c r="L61" s="9"/>
+      <c r="M61" s="9"/>
+    </row>
   </sheetData>
   <mergeCells count="2">
     <mergeCell ref="A2:M2"/>
-    <mergeCell ref="A30:M30"/>
+    <mergeCell ref="A32:M32"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId1"/>
